--- a/1_variable.js/7_WebScraping/espnScraper/IPL/Royal Challengers Bangalore/Josh Philippe †.xlsx
+++ b/1_variable.js/7_WebScraping/espnScraper/IPL/Royal Challengers Bangalore/Josh Philippe †.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -485,9 +485,79 @@
         <v>Kings XI won by 97 runs</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Josh Philippe †</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="D4" t="str">
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <v>2</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Sep 21 2020</v>
+      </c>
+      <c r="K4" t="str">
+        <v>RCB won by 10 runs</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Josh Philippe †</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>3</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H5" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Dubai (DSC)</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Sep 24 2020</v>
+      </c>
+      <c r="K5" t="str">
+        <v>Kings XI won by 97 runs</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
   </ignoredErrors>
 </worksheet>
 </file>